--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Insl5-Rxfp4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Insl5-Rxfp4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Insl5</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.356614</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2549271348773238</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.339160140832479</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.254802000000001</v>
+        <v>3.442313</v>
       </c>
       <c r="N2">
-        <v>15.764406</v>
+        <v>10.326939</v>
       </c>
       <c r="O2">
-        <v>0.3504112753060405</v>
+        <v>0.2120737065114005</v>
       </c>
       <c r="P2">
-        <v>0.3780684323171691</v>
+        <v>0.2368526181325179</v>
       </c>
       <c r="Q2">
-        <v>0.6246453201426667</v>
+        <v>0.4091923360606666</v>
       </c>
       <c r="R2">
-        <v>5.621807881284</v>
+        <v>3.682731024546</v>
       </c>
       <c r="S2">
-        <v>0.3504112753060405</v>
+        <v>0.05406334238376578</v>
       </c>
       <c r="T2">
-        <v>0.3780684323171691</v>
+        <v>0.08033096732236612</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.356614</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2549271348773238</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.339160140832479</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>7.715909</v>
       </c>
       <c r="O3">
-        <v>0.1715092540014102</v>
+        <v>0.158453673516874</v>
       </c>
       <c r="P3">
-        <v>0.1850460854365167</v>
+        <v>0.1769675649214407</v>
       </c>
       <c r="Q3">
         <v>0.3057334635695555</v>
@@ -638,10 +638,10 @@
         <v>2.751601172126</v>
       </c>
       <c r="S3">
-        <v>0.1715092540014102</v>
+        <v>0.04039414100044358</v>
       </c>
       <c r="T3">
-        <v>0.1850460854365167</v>
+        <v>0.06002034424153669</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.356614</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2549271348773238</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.339160140832479</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.403906333333333</v>
+        <v>2.535264</v>
       </c>
       <c r="N4">
-        <v>7.211719</v>
+        <v>7.605791999999999</v>
       </c>
       <c r="O4">
-        <v>0.1603021168028026</v>
+        <v>0.1561923141402073</v>
       </c>
       <c r="P4">
-        <v>0.1729543946433467</v>
+        <v>0.174441985971967</v>
       </c>
       <c r="Q4">
-        <v>0.2857555510517777</v>
+        <v>0.301370212032</v>
       </c>
       <c r="R4">
-        <v>2.571799959466</v>
+        <v>2.712331908288</v>
       </c>
       <c r="S4">
-        <v>0.1603021168028026</v>
+        <v>0.03981765913362195</v>
       </c>
       <c r="T4">
-        <v>0.1729543946433467</v>
+        <v>0.05916376852934966</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.356614</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.2549271348773238</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.339160140832479</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.2910665</v>
+        <v>5.0943505</v>
       </c>
       <c r="N5">
-        <v>6.582133000000001</v>
+        <v>10.188701</v>
       </c>
       <c r="O5">
-        <v>0.219461515273456</v>
+        <v>0.3138522826957358</v>
       </c>
       <c r="P5">
-        <v>0.157855405691347</v>
+        <v>0.2336820724146239</v>
       </c>
       <c r="Q5">
-        <v>0.3912134629436667</v>
+        <v>0.6055722364023333</v>
       </c>
       <c r="R5">
-        <v>2.347280777662</v>
+        <v>3.633433418414</v>
       </c>
       <c r="S5">
-        <v>0.219461515273456</v>
+        <v>0.08000946320233182</v>
       </c>
       <c r="T5">
-        <v>0.157855405691347</v>
+        <v>0.07925564459016937</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,10 +794,10 @@
         <v>0.356614</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.2549271348773238</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.339160140832479</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,338 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.474354</v>
+        <v>2.587785</v>
       </c>
       <c r="N6">
-        <v>4.423062</v>
+        <v>7.763355</v>
       </c>
       <c r="O6">
-        <v>0.09831583861629076</v>
+        <v>0.1594280231357824</v>
       </c>
       <c r="P6">
-        <v>0.1060756819116205</v>
+        <v>0.1780557585594505</v>
       </c>
       <c r="Q6">
-        <v>0.1752584257853333</v>
+        <v>0.30761345333</v>
       </c>
       <c r="R6">
-        <v>1.577325832068</v>
+        <v>2.76852107997</v>
       </c>
       <c r="S6">
-        <v>0.09831583861629076</v>
+        <v>0.0406425291571607</v>
       </c>
       <c r="T6">
-        <v>0.1060756819116205</v>
+        <v>0.06038941614905712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.347424</v>
+      </c>
+      <c r="H7">
+        <v>0.694848</v>
+      </c>
+      <c r="I7">
+        <v>0.7450728651226762</v>
+      </c>
+      <c r="J7">
+        <v>0.6608398591675211</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.442313</v>
+      </c>
+      <c r="N7">
+        <v>10.326939</v>
+      </c>
+      <c r="O7">
+        <v>0.2120737065114005</v>
+      </c>
+      <c r="P7">
+        <v>0.2368526181325179</v>
+      </c>
+      <c r="Q7">
+        <v>1.195942151712</v>
+      </c>
+      <c r="R7">
+        <v>7.175652910271999</v>
+      </c>
+      <c r="S7">
+        <v>0.1580103641276347</v>
+      </c>
+      <c r="T7">
+        <v>0.1565216508101518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.347424</v>
+      </c>
+      <c r="H8">
+        <v>0.694848</v>
+      </c>
+      <c r="I8">
+        <v>0.7450728651226762</v>
+      </c>
+      <c r="J8">
+        <v>0.6608398591675211</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.571969666666666</v>
+      </c>
+      <c r="N8">
+        <v>7.715909</v>
+      </c>
+      <c r="O8">
+        <v>0.158453673516874</v>
+      </c>
+      <c r="P8">
+        <v>0.1769675649214407</v>
+      </c>
+      <c r="Q8">
+        <v>0.893563989472</v>
+      </c>
+      <c r="R8">
+        <v>5.361383936832</v>
+      </c>
+      <c r="S8">
+        <v>0.1180595325164305</v>
+      </c>
+      <c r="T8">
+        <v>0.116947220679904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.347424</v>
+      </c>
+      <c r="H9">
+        <v>0.694848</v>
+      </c>
+      <c r="I9">
+        <v>0.7450728651226762</v>
+      </c>
+      <c r="J9">
+        <v>0.6608398591675211</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.535264</v>
+      </c>
+      <c r="N9">
+        <v>7.605791999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.1561923141402073</v>
+      </c>
+      <c r="P9">
+        <v>0.174441985971967</v>
+      </c>
+      <c r="Q9">
+        <v>0.8808115599359999</v>
+      </c>
+      <c r="R9">
+        <v>5.284869359616</v>
+      </c>
+      <c r="S9">
+        <v>0.1163746550065853</v>
+      </c>
+      <c r="T9">
+        <v>0.1152782174426174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.347424</v>
+      </c>
+      <c r="H10">
+        <v>0.694848</v>
+      </c>
+      <c r="I10">
+        <v>0.7450728651226762</v>
+      </c>
+      <c r="J10">
+        <v>0.6608398591675211</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.0943505</v>
+      </c>
+      <c r="N10">
+        <v>10.188701</v>
+      </c>
+      <c r="O10">
+        <v>0.3138522826957358</v>
+      </c>
+      <c r="P10">
+        <v>0.2336820724146239</v>
+      </c>
+      <c r="Q10">
+        <v>1.769899628112</v>
+      </c>
+      <c r="R10">
+        <v>7.079598512448</v>
+      </c>
+      <c r="S10">
+        <v>0.233842819493404</v>
+      </c>
+      <c r="T10">
+        <v>0.1544264278244545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.347424</v>
+      </c>
+      <c r="H11">
+        <v>0.694848</v>
+      </c>
+      <c r="I11">
+        <v>0.7450728651226762</v>
+      </c>
+      <c r="J11">
+        <v>0.6608398591675211</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.587785</v>
+      </c>
+      <c r="N11">
+        <v>7.763355</v>
+      </c>
+      <c r="O11">
+        <v>0.1594280231357824</v>
+      </c>
+      <c r="P11">
+        <v>0.1780557585594505</v>
+      </c>
+      <c r="Q11">
+        <v>0.8990586158399999</v>
+      </c>
+      <c r="R11">
+        <v>5.39435169504</v>
+      </c>
+      <c r="S11">
+        <v>0.1187854939786217</v>
+      </c>
+      <c r="T11">
+        <v>0.1176663424103934</v>
       </c>
     </row>
   </sheetData>
